--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33377789-8339-4A84-855A-0E3D5120F921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA115B0-00C7-4AA9-B3CC-7E21A19BEFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6310" yWindow="1810" windowWidth="19200" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5800" yWindow="1640" windowWidth="19200" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFA115B0-00C7-4AA9-B3CC-7E21A19BEFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E8821E-B9BA-41CE-B51A-AB064DE9898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="1640" windowWidth="19200" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{89E8821E-B9BA-41CE-B51A-AB064DE9898C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C138DD5-5A76-4305-A434-3F654EF96961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="1640" windowWidth="19200" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6240" yWindow="1500" windowWidth="19200" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C138DD5-5A76-4305-A434-3F654EF96961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{349876F0-70C8-45D6-B70D-B2FA672592B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6240" yWindow="1500" windowWidth="19200" windowHeight="11730" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349876F0-70C8-45D6-B70D-B2FA672592B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8AEC1C-70AD-4BC4-A334-D8CCB171CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A8AEC1C-70AD-4BC4-A334-D8CCB171CBBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E23C628-524C-4097-AF43-6D8C5527CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E23C628-524C-4097-AF43-6D8C5527CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9532AA8C-7979-47BC-AA32-A761816FF0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5830" yWindow="1840" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9532AA8C-7979-47BC-AA32-A761816FF0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{870BB3DD-641A-4FCA-8909-4154C4741D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5830" yWindow="1840" windowWidth="19390" windowHeight="11830" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="3420" windowWidth="19390" windowHeight="12310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{870BB3DD-641A-4FCA-8909-4154C4741D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF58C317-C2DB-4140-B9C0-EA4D5D7A24E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3420" windowWidth="19390" windowHeight="12310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="2620" windowWidth="22620" windowHeight="12550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF58C317-C2DB-4140-B9C0-EA4D5D7A24E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D2AF9C-104E-4A85-8478-20C666C31112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="2620" windowWidth="22620" windowHeight="12550" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="22620" windowHeight="12150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2D2AF9C-104E-4A85-8478-20C666C31112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D8A2D9-3502-40CE-8DDE-ADF92BBDB848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="22620" windowHeight="12150" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="19040" windowHeight="12700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/out/bbb.xlsx
+++ b/out/bbb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitwork\CreateTableOfContentsExcelUsingSheetNames\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77D8A2D9-3502-40CE-8DDE-ADF92BBDB848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9293C4BE-C0D9-4A26-B579-A4247CD7F679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="19040" windowHeight="12700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6470" yWindow="1220" windowWidth="19040" windowHeight="12700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
